--- a/data/trans_bre/P26-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P26-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 4,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 10,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 10,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,01; 12,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,21; 9,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,54; 71,91</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 13,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 7,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 10,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 9,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 42,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; 19,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 36,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,55; 78,2</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,28; 21,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 13,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 8,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,19; 106,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,11; 47,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 33,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,09; 122,13</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,19; 19,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,23; 19,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,01; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,46; 73,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,58; 63,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 42,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,79; 40,15</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 17,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 16,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 7,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 3,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,35; 89,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,27; 73,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,32; 37,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,53; 39,37</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 12,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 10,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 6,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 4,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,8; 160,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 79,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,67; 76,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 132,61</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,1; 11,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 8,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 2,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 39,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,35; 26,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 15,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,47; 27,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 10,77</t>
+          <t>-8,79; 11,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 71,91</t>
+          <t>-34,26; 76,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>0,07%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 9,04</t>
+          <t>-8,8; 7,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 78,2</t>
+          <t>-42,42; 51,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>54,61%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,31</t>
+          <t>1,05; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 122,13</t>
+          <t>9,6; 121,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-24,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,07%</t>
+          <t>-63,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 4,1</t>
+          <t>-61,3; 3,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 40,15</t>
+          <t>-82,38; 34,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,88</t>
+          <t>-2,92; 3,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 39,37</t>
+          <t>-20,36; 39,4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,15%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>-10,19%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,44</t>
+          <t>4,43; 15,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,01</t>
+          <t>-1,33; 11,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,01</t>
+          <t>-4,57; 6,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,56</t>
+          <t>-6,07; 4,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 160,53</t>
+          <t>32,78; 228,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 79,92</t>
+          <t>-6,7; 79,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 76,45</t>
+          <t>-30,86; 69,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 132,61</t>
+          <t>-69,19; 67,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>65,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>333,15%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,89; 13,69</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 13,23</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 8,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 7,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 190,06</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 188,24</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 180,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65,74; 1201,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-5,61</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,51%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-30,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,1; 11,01</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,44; 8,31</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,47; 3,74</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 2,98</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 1,92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>20,41; 39,68</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>10,35; 26,39</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-2,04; 15,56</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-29,47; 27,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-69,92; 17,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P26-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 4,83</t>
+          <t>-8,15; 4,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 6,14</t>
+          <t>-7,59; 6,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 3,51</t>
+          <t>-10,06; 3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 11,58</t>
+          <t>-7,57; 11,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 10,67</t>
+          <t>-15,84; 9,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 12,65</t>
+          <t>-13,59; 12,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 9,89</t>
+          <t>-23,0; 11,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 76,75</t>
+          <t>-31,78; 76,65</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 13,12</t>
+          <t>1,53; 12,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 7,02</t>
+          <t>-4,16; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 10,4</t>
+          <t>-1,36; 10,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 7,08</t>
+          <t>-8,43; 7,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 42,55</t>
+          <t>3,99; 41,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 19,54</t>
+          <t>-9,87; 19,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 36,53</t>
+          <t>-3,94; 37,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 51,67</t>
+          <t>-41,67; 51,68</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 21,82</t>
+          <t>11,56; 22,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 13,9</t>
+          <t>3,25; 14,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 7,4</t>
+          <t>-2,33; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,38</t>
+          <t>1,05; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,19; 106,91</t>
+          <t>45,42; 108,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 47,35</t>
+          <t>9,37; 49,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 33,08</t>
+          <t>-8,65; 33,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 121,76</t>
+          <t>9,32; 117,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 19,23</t>
+          <t>6,73; 18,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 19,5</t>
+          <t>7,23; 19,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,63</t>
+          <t>-1,27; 9,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 3,56</t>
+          <t>-61,28; 3,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 73,47</t>
+          <t>19,69; 67,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 63,43</t>
+          <t>19,08; 63,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 42,68</t>
+          <t>-5,14; 39,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 34,35</t>
+          <t>-83,39; 35,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 17,16</t>
+          <t>3,68; 17,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 16,89</t>
+          <t>3,12; 16,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 7,58</t>
+          <t>-4,59; 7,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,97</t>
+          <t>-3,44; 3,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,35; 89,31</t>
+          <t>14,96; 92,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,27; 73,75</t>
+          <t>10,43; 71,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 37,47</t>
+          <t>-15,93; 36,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 39,4</t>
+          <t>-23,4; 38,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,85</t>
+          <t>3,95; 14,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 11,74</t>
+          <t>-1,6; 11,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,85</t>
+          <t>-4,48; 6,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 4,06</t>
+          <t>-7,09; 4,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,78; 228,31</t>
+          <t>26,94; 202,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 79,08</t>
+          <t>-7,2; 79,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 69,01</t>
+          <t>-29,5; 65,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 67,91</t>
+          <t>-70,63; 64,91</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 13,69</t>
+          <t>-1,34; 13,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,23</t>
+          <t>0,23; 12,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,74</t>
+          <t>-0,95; 9,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,12</t>
+          <t>2,34; 7,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 190,06</t>
+          <t>-11,05; 175,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 188,24</t>
+          <t>1,13; 170,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 180,24</t>
+          <t>-11,16; 209,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>65,74; 1201,61</t>
+          <t>69,62; 1226,0</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,01</t>
+          <t>6,26; 11,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,31</t>
+          <t>3,47; 8,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,74</t>
+          <t>-0,79; 3,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 1,92</t>
+          <t>-25,19; 1,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,41; 39,68</t>
+          <t>21,02; 40,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,35; 26,39</t>
+          <t>9,83; 25,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 15,56</t>
+          <t>-3,1; 15,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 17,47</t>
+          <t>-67,7; 16,58</t>
         </is>
       </c>
     </row>
